--- a/postOnForum/PostToForum.xlsx
+++ b/postOnForum/PostToForum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HIEU\Desktop\Assignment_3\selenium-testing\postOnForum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0A837C-5047-46E8-9FD0-F498C9EBE4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72A0859-8606-44B3-A5C1-4C2BE1A882AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B847A7E1-BE5E-4A72-9E79-DD107D104D05}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D24" activeCellId="1" sqref="A4:J14 D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
